--- a/Packet/PacketData/Mail.xlsx
+++ b/Packet/PacketData/Mail.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="メールリスト要求" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="メールデータ" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="メールリスト" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="メール開封" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="添付物受信" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -166,6 +168,18 @@
   </si>
   <si>
     <t xml:space="preserve">メールリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketMailRead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MailRead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketMailAttachmentRecv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MailAttachmentRecv</t>
   </si>
 </sst>
 </file>
@@ -330,7 +344,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -625,4 +639,138 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Mail.xlsx
+++ b/Packet/PacketData/Mail.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="メールリスト要求" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="メールデータ" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="メールリスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="メール開封" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="添付物受信" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="添付物受信リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="添付物受信結果" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -176,10 +177,37 @@
     <t xml:space="preserve">MailRead</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketMailAttachmentRecv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MailAttachmentRecv</t>
+    <t xml:space="preserve">PacketMailAttachmentRecvRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MailAttachmentRecvRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketMailAttachmentRecvResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MailAttachmentRecvResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リザルトコード</t>
   </si>
 </sst>
 </file>
@@ -715,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,4 +801,99 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Mail.xlsx
+++ b/Packet/PacketData/Mail.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlreadyRecv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受信済み</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -808,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -875,16 +881,30 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Mail.xlsx
+++ b/Packet/PacketData/Mail.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -814,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,12 +898,26 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>62</v>
       </c>
     </row>
